--- a/kit/Resultats-EPUB3/Resultats-epub3.xlsx
+++ b/kit/Resultats-EPUB3/Resultats-epub3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="478" firstSheet="0" activeTab="7"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="478" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Général" sheetId="1" state="visible" r:id="rId2"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="263">
   <si>
     <t>Plateforme</t>
   </si>
@@ -166,6 +166,13 @@
     <t>Via Android talkback</t>
   </si>
   <si>
+    <t>Windows 10</t>
+  </si>
+  <si>
+    <t>Narrateur stock
+Et prononce étage en début de ligne</t>
+  </si>
+  <si>
     <t>fulltitle</t>
   </si>
   <si>
@@ -290,6 +297,9 @@
   </si>
   <si>
     <t>OK pour tout</t>
+  </si>
+  <si>
+    <t>Oui si tiret</t>
   </si>
   <si>
     <t>Titre en chiffres romains</t>
@@ -444,6 +454,15 @@
   </si>
   <si>
     <t>OK sauf caractère</t>
+  </si>
+  <si>
+    <t>OK (les 2)</t>
+  </si>
+  <si>
+    <t>OK (faux)</t>
+  </si>
+  <si>
+    <t>OK (lu de gauche à droite)</t>
   </si>
   <si>
     <t>Texte barré (del)</t>
@@ -530,6 +549,12 @@
     <t>Bug fichier suite texte clip</t>
   </si>
   <si>
+    <t>OK mais haché</t>
+  </si>
+  <si>
+    <t>Annonce ligne vide</t>
+  </si>
+  <si>
     <t>titre en image</t>
   </si>
   <si>
@@ -654,6 +679,15 @@
   </si>
   <si>
     <t>Oui (pour mille)</t>
+  </si>
+  <si>
+    <t>Lu « coche caractère gras »</t>
+  </si>
+  <si>
+    <t>Non (lu « siècle »)</t>
+  </si>
+  <si>
+    <t>Non (lu «main »)</t>
   </si>
   <si>
     <t>header</t>
@@ -847,6 +881,9 @@
     <t>Pas mis en forme mais lu</t>
   </si>
   <si>
+    <t>Lu « Image image… »</t>
+  </si>
+  <si>
     <t>SVG text</t>
   </si>
   <si>
@@ -857,6 +894,9 @@
   </si>
   <si>
     <t>Non (indique image)</t>
+  </si>
+  <si>
+    <t>Oui (mais un peu saccadé)</t>
   </si>
   <si>
     <t>glossaire</t>
@@ -1183,10 +1223,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1458,6 +1498,35 @@
         <v>15</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
@@ -1475,10 +1544,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1494,7 +1563,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1505,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1513,7 +1582,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1521,7 +1590,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1538,7 +1607,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1554,7 +1623,7 @@
         <v>21</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1588,7 +1657,18 @@
         <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>238</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -1608,10 +1688,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1627,13 +1707,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1775,6 +1855,23 @@
         <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1795,10 +1892,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1816,10 +1913,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1937,6 +2034,20 @@
         <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1957,10 +2068,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1978,22 +2089,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2207,6 +2318,32 @@
         <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2227,10 +2364,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="C27" activeCellId="0" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2248,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,6 +2533,23 @@
         <v>29</v>
       </c>
       <c r="E14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2416,10 +2570,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2435,7 +2589,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2529,6 +2683,17 @@
         <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2552,7 +2717,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2581,52 +2746,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,40 +2814,40 @@
         <v>29</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2702,40 +2867,40 @@
         <v>29</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2743,7 +2908,7 @@
         <v>19</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>29</v>
@@ -2755,40 +2920,40 @@
         <v>29</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,46 +2991,46 @@
         <v>29</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2908,40 +3073,40 @@
         <v>29</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,46 +3126,46 @@
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3047,43 +3212,99 @@
         <v>29</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J14" s="5" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="I16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3104,8 +3325,8 @@
   </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L11" activeCellId="0" sqref="L11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3140,67 +3361,67 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="W1" s="11" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3214,13 +3435,13 @@
         <v>29</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>12</v>
@@ -3235,16 +3456,16 @@
         <v>12</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>29</v>
@@ -3259,19 +3480,19 @@
         <v>29</v>
       </c>
       <c r="S2" s="9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="W2" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,13 +3503,13 @@
         <v>29</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>12</v>
@@ -3303,43 +3524,43 @@
         <v>12</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="U3" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="W3" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3347,16 +3568,16 @@
         <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>12</v>
@@ -3371,43 +3592,43 @@
         <v>12</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="R4" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V4" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="W4" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W4" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3444,16 +3665,16 @@
         <v>9</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>12</v>
@@ -3465,46 +3686,46 @@
         <v>12</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="L7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="M7" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="U7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="W7" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="S7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="U7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="V7" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="W7" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3523,6 +3744,16 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3"/>
@@ -3530,16 +3761,16 @@
         <v>21</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>12</v>
@@ -3554,16 +3785,16 @@
         <v>12</v>
       </c>
       <c r="K9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>120</v>
-      </c>
       <c r="M9" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>29</v>
@@ -3572,25 +3803,25 @@
         <v>29</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R9" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W9" s="6" t="s">
         <v>115</v>
-      </c>
-      <c r="S9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="U9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="V9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="W9" s="6" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3604,16 +3835,16 @@
         <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>12</v>
@@ -3628,13 +3859,13 @@
         <v>12</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>29</v>
@@ -3646,25 +3877,25 @@
         <v>29</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="S11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="V11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W11" s="6" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3704,16 +3935,16 @@
         <v>21</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>12</v>
@@ -3728,46 +3959,117 @@
         <v>12</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="W14" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="R14" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="S14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="T14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="V14" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="U16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3789,7 +4091,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3814,46 +4116,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3879,13 +4181,13 @@
         <v>29</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>29</v>
@@ -3894,7 +4196,7 @@
         <v>29</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>12</v>
@@ -3926,13 +4228,13 @@
         <v>29</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K3" s="5" t="s">
         <v>29</v>
@@ -3941,7 +4243,7 @@
         <v>29</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>12</v>
@@ -3950,7 +4252,7 @@
         <v>12</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3973,13 +4275,13 @@
         <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>29</v>
@@ -4042,13 +4344,13 @@
         <v>29</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>29</v>
@@ -4057,7 +4359,7 @@
         <v>29</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N7" s="6" t="s">
         <v>12</v>
@@ -4110,22 +4412,22 @@
         <v>29</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M9" s="6" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="N9" s="6" t="s">
         <v>12</v>
@@ -4163,22 +4465,22 @@
         <v>29</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>12</v>
@@ -4187,7 +4489,7 @@
         <v>12</v>
       </c>
       <c r="P11" s="9" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4235,22 +4537,22 @@
         <v>29</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="J14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>12</v>
@@ -4259,10 +4561,60 @@
         <v>12</v>
       </c>
       <c r="P14" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="6" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+      <c r="I16" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>158</v>
+      </c>
+    </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4282,13 +4634,13 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X11" activeCellId="0" sqref="X11"/>
+      <selection pane="topLeft" activeCell="Q26" activeCellId="0" sqref="Q26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.0051020408163"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1683673469388"/>
@@ -4314,73 +4666,73 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4397,52 +4749,52 @@
         <v>29</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="U2" s="9" t="s">
         <v>29</v>
@@ -4451,7 +4803,7 @@
         <v>29</v>
       </c>
       <c r="W2" s="6" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="X2" s="6" t="s">
         <v>29</v>
@@ -4465,7 +4817,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>29</v>
@@ -4474,47 +4826,47 @@
         <v>29</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="Q3" s="5" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="R3" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="T3" s="6" t="s">
         <v>29</v>
       </c>
@@ -4525,13 +4877,13 @@
         <v>29</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4539,73 +4891,73 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="U4" s="9" t="s">
         <v>29</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4644,7 +4996,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>29</v>
@@ -4653,46 +5005,46 @@
         <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="T7" s="6" t="s">
         <v>29</v>
@@ -4701,16 +5053,16 @@
         <v>29</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4757,64 +5109,64 @@
         <v>29</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S9" s="5" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="T9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="U9" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4834,13 +5186,13 @@
         <v>29</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>29</v>
@@ -4849,16 +5201,16 @@
         <v>29</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="M11" s="6" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="N11" s="6" t="s">
         <v>29</v>
@@ -4867,13 +5219,13 @@
         <v>29</v>
       </c>
       <c r="P11" s="5" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S11" s="6" t="s">
         <v>29</v>
@@ -4891,7 +5243,7 @@
         <v>29</v>
       </c>
       <c r="X11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y11" s="6" t="s">
         <v>29</v>
@@ -4945,10 +5297,10 @@
         <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>29</v>
@@ -4957,16 +5309,16 @@
         <v>29</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N14" s="6" t="s">
         <v>29</v>
@@ -4975,39 +5327,114 @@
         <v>29</v>
       </c>
       <c r="P14" s="5" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="R14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="T14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="U14" s="6" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="V14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="W14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="X14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="R16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="S16" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="T16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="U16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="W16" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
@@ -5019,6 +5446,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="12"/>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="0.5" bottom="0.5" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5036,10 +5464,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5064,52 +5492,52 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5126,10 +5554,10 @@
         <v>29</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>29</v>
@@ -5138,16 +5566,16 @@
         <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M2" s="6" t="s">
         <v>29</v>
@@ -5156,13 +5584,13 @@
         <v>29</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>29</v>
@@ -5173,13 +5601,13 @@
         <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>29</v>
@@ -5188,7 +5616,7 @@
         <v>29</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>29</v>
@@ -5232,28 +5660,28 @@
         <v>29</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>29</v>
@@ -5262,13 +5690,13 @@
         <v>29</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R4" s="6" t="s">
         <v>29</v>
@@ -5306,28 +5734,28 @@
         <v>29</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="L7" s="6" t="s">
         <v>29</v>
@@ -5342,10 +5770,10 @@
         <v>29</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R7" s="6" t="s">
         <v>29</v>
@@ -5382,10 +5810,10 @@
         <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>29</v>
@@ -5394,16 +5822,16 @@
         <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L9" s="6" t="s">
         <v>29</v>
@@ -5418,10 +5846,10 @@
         <v>29</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>29</v>
@@ -5441,49 +5869,49 @@
         <v>29</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="J11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="L11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="P11" s="6" t="s">
         <v>29</v>
       </c>
       <c r="Q11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R11" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5524,45 +5952,101 @@
         <v>29</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>29</v>
       </c>
       <c r="H14" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O14" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="I14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="6" t="s">
+      <c r="J16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5583,10 +6067,10 @@
     <tabColor rgb="00FFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="167" zoomScaleNormal="167" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -5608,19 +6092,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,10 +6124,10 @@
         <v>15</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5657,13 +6141,13 @@
         <v>29</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,10 +6164,10 @@
         <v>15</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5713,10 +6197,10 @@
         <v>15</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5745,10 +6229,10 @@
         <v>15</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5771,10 +6255,10 @@
         <v>15</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,10 +6291,33 @@
         <v>15</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>234</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>

--- a/kit/Resultats-EPUB3/Resultats-epub3.xlsx
+++ b/kit/Resultats-EPUB3/Resultats-epub3.xlsx
@@ -170,7 +170,7 @@
   </si>
   <si>
     <t>Narrateur stock
-Et prononce étage en début de ligne</t>
+Et prononcé étage si suivi d’un chiffre</t>
   </si>
   <si>
     <t>fulltitle</t>
@@ -1226,7 +1226,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E27" activeCellId="0" sqref="E27"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
